--- a/biology/Botanique/Cruciata_laevipes/Cruciata_laevipes.xlsx
+++ b/biology/Botanique/Cruciata_laevipes/Cruciata_laevipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cruciata laevipes
 Le Gaillet croisette (Cruciata laevipes) est une plante herbacée vivace de la famille des Rubiacées.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Galium cruciata Scop., 1771</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gaillet croisette forme parfois d'importantes colonies qui dégagent une odeur de miel au printemps.
 Les tiges couchées à la base, à section carrée, sont couvertes de longs poils soyeux. Les feuilles ovales, verticillées par 4 (d'où le nom de croisette), à trois nervures saillantes en dessous, très poilues, vert clair, sont non agrippantes, à la différence du gaillet gratteron.
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gaillet croisette se rencontre en Europe (Albanie, Allemagne, Autriche, Belgique, Bulgarie, Espagne, ex-Tchécoslovaquie, îles de l’Égée, France (incluant la Corse), Grande Bretagne, Grèce, Hongrie, Italie (incluant la Sardaigne et la Sicile) , Pays-Bas, Pologne, Portugal, Roumanie, partie européenne de la Russie, Suisse, Ukraine (incluant la Crimée) et ex-Yougoslavie) et en Asie (ouest de l'Himalaya, Iran et Turquie).[réf. nécessaire]
 </t>
@@ -611,10 +629,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuisine
-La fleur, à l'odeur de miel, sert à préparer une infusion. L'infusion doit être courte, sinon elle est source d'amertume, avec un gout pouvant évoluer vers celui du café. La plante entière, préalablement gâchée peut être utilisée pour aromatiser le lait servant à préparer des desserts, leur donnant une odeur de miel pour une infusion courte, virant à un gout de café si l'infusion est longue[1].
-Médecines traditionnelles
-Plante médicinale, elle est utilisée contre les maux d'estomac, pour réveiller l'appétit (plante apéritive et stomachique), pour soulager les plaies internes et externes, les troubles nerveux et les maladies de la peau[2].
+          <t>Cuisine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur, à l'odeur de miel, sert à préparer une infusion. L'infusion doit être courte, sinon elle est source d'amertume, avec un gout pouvant évoluer vers celui du café. La plante entière, préalablement gâchée peut être utilisée pour aromatiser le lait servant à préparer des desserts, leur donnant une odeur de miel pour une infusion courte, virant à un gout de café si l'infusion est longue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cruciata_laevipes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruciata_laevipes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médecines traditionnelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante médicinale, elle est utilisée contre les maux d'estomac, pour réveiller l'appétit (plante apéritive et stomachique), pour soulager les plaies internes et externes, les troubles nerveux et les maladies de la peau.
 </t>
         </is>
       </c>
